--- a/data/SUT_c-i+.xlsx
+++ b/data/SUT_c-i+.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maximiko\opt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maximiko\JuliaEnvironments\RectangularChoice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB47F6A-98D7-4B08-A09D-1F798EE27804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B8466-9D10-44A9-B89C-40EFDB2EC373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E0D1365-AAFA-4D31-B34B-F143CEFDB59F}"/>
   </bookViews>
